--- a/biology/Zoologie/Acanthosphinx_guessfeldti/Acanthosphinx_guessfeldti.xlsx
+++ b/biology/Zoologie/Acanthosphinx_guessfeldti/Acanthosphinx_guessfeldti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthosphinx guessfeldti est une espèce de lépidoptères de la famille des Sphingidae, la seule du genre Acanthosphinx. Actuellement ce genre est inclus dans le genre Polyptychus.
 Ce papillon vit dans les forêts depuis la côte atlantique africaine de la Sierra Leone en passant par le bassin du fleuve Congo, l'Angola, la Zambie, le Malawi, jusqu'à la Tanzanie et l'Ouganda.
